--- a/Keyed Alike Systems/pentest_keyring.xlsx
+++ b/Keyed Alike Systems/pentest_keyring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellag\Documents\GitHub\physical-pentesting\Keyed Alike Systems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECE4410-525A-4CB7-8DA3-E3DDF75F1E10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFCA2FB-CDE1-4BC7-A216-1FC3E98EA4D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1845" yWindow="1170" windowWidth="23145" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Key Name</t>
   </si>
@@ -94,9 +94,6 @@
     <t>Opens essentially every DoorKing telephony box made after 1997. (The ones with the "A", "Z", "CALL" buttons and the "DKS" logo. Some models may only have the "DKS" logo.) It's common for these units to have an override button near the postal switch (second key on the front panel). If this button is not present, it is also possible to bypass the relay with a wire loop, or manually short the postal switch terminals.</t>
   </si>
   <si>
-    <t>Used on some Linear access control keypads. The relay inputs can be manually bypassed with a wire loop.</t>
-  </si>
-  <si>
     <t>This is one of the most common keys, period. Used by the majority of RV compartments. Also has been used on elevators, golf carts, drawers, cabinets, toolboxes, forklifts, and more.</t>
   </si>
   <si>
@@ -109,12 +106,6 @@
     <t>Used for the fire service override by many elevators in NYC.</t>
   </si>
   <si>
-    <t xml:space="preserve">Works on some Ford fleet vehicles. This inculdes many police fleets, and by extention some auctioned off police vehicles. Some cab companies are known to use auctioned off Ford police fleets, so this may work for those as well. </t>
-  </si>
-  <si>
-    <t>Works for many truck toolboxes, in additon to some RV compartments, elevators, slot machines, tool drawers, and more.</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -123,12 +114,27 @@
   <si>
     <t>2019 CompX National Catalog: http://bit.ly/CompXNational2019</t>
   </si>
+  <si>
+    <t>C&amp;K Electrical Switch Key</t>
+  </si>
+  <si>
+    <t>Works for many truck toolboxes, in addition to some RV compartments, elevators, slot machines, tool drawers, and more.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Works on some Ford fleet vehicles. This includes many police fleets, and by extension some auctioned off police vehicles. Some cab companies are known to use auctioned off Ford police fleets, so this may work for those as well. </t>
+  </si>
+  <si>
+    <t>Used on many electrical panels and boxes, in addition to some Linear products.</t>
+  </si>
+  <si>
+    <t>Used on many Linear access control keypads.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +177,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="major"/>
@@ -371,7 +384,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -412,9 +425,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -434,6 +444,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -652,7 +677,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z995"/>
+  <dimension ref="A1:Z996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -661,7 +686,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="16.25" customWidth="1"/>
     <col min="2" max="2" width="18.375" customWidth="1"/>
     <col min="3" max="3" width="73" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
@@ -680,10 +705,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -705,15 +730,15 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="18">
         <v>2642</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="2"/>
@@ -739,17 +764,17 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26" ht="75" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>4</v>
+    <row r="3" spans="1:26" ht="30" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
+        <v>29</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>5</v>
+      <c r="B3" s="19" t="s">
+        <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>21</v>
+      <c r="C3" s="12" t="s">
+        <v>32</v>
       </c>
-      <c r="D3" s="16"/>
+      <c r="D3" s="13"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -773,17 +798,17 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:26" ht="30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="75" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>7</v>
+      <c r="B4" s="21" t="s">
+        <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="15"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -807,19 +832,17 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>20</v>
+      <c r="B5" s="22">
+        <v>222343</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>19</v>
+      <c r="C5" s="24" t="s">
+        <v>33</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="D5" s="6"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -845,15 +868,17 @@
     </row>
     <row r="6" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>9</v>
+      <c r="B6" s="21" t="s">
+        <v>20</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="6"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -877,15 +902,15 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>11</v>
+      <c r="B7" s="21" t="s">
+        <v>9</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>23</v>
+      <c r="C7" s="24" t="s">
+        <v>30</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="2"/>
@@ -911,15 +936,15 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" spans="1:26" ht="30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="45" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>13</v>
+      <c r="B8" s="21" t="s">
+        <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="2"/>
@@ -947,13 +972,13 @@
     </row>
     <row r="9" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
-      <c r="B9" s="20" t="s">
-        <v>15</v>
+      <c r="B9" s="19" t="s">
+        <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="2"/>
@@ -979,19 +1004,17 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>17</v>
+    <row r="10" spans="1:26" ht="30" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>14</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>18</v>
+      <c r="B10" s="19" t="s">
+        <v>15</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>27</v>
+      <c r="C10" s="4" t="s">
+        <v>24</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>30</v>
-      </c>
+      <c r="D10" s="6"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1015,11 +1038,19 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+    <row r="11" spans="1:26" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>27</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1046,7 +1077,7 @@
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
+      <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1074,7 +1105,7 @@
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="C13" s="3"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1155,7 +1186,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -28595,6 +28626,34 @@
       <c r="Y995" s="2"/>
       <c r="Z995" s="2"/>
     </row>
+    <row r="996" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A996" s="2"/>
+      <c r="B996" s="2"/>
+      <c r="C996" s="2"/>
+      <c r="D996" s="2"/>
+      <c r="E996" s="2"/>
+      <c r="F996" s="2"/>
+      <c r="G996" s="2"/>
+      <c r="H996" s="2"/>
+      <c r="I996" s="2"/>
+      <c r="J996" s="2"/>
+      <c r="K996" s="2"/>
+      <c r="L996" s="2"/>
+      <c r="M996" s="2"/>
+      <c r="N996" s="2"/>
+      <c r="O996" s="2"/>
+      <c r="P996" s="2"/>
+      <c r="Q996" s="2"/>
+      <c r="R996" s="2"/>
+      <c r="S996" s="2"/>
+      <c r="T996" s="2"/>
+      <c r="U996" s="2"/>
+      <c r="V996" s="2"/>
+      <c r="W996" s="2"/>
+      <c r="X996" s="2"/>
+      <c r="Y996" s="2"/>
+      <c r="Z996" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Keyed Alike Systems/pentest_keyring.xlsx
+++ b/Keyed Alike Systems/pentest_keyring.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellag\Documents\GitHub\physical-pentesting\Keyed Alike Systems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFCA2FB-CDE1-4BC7-A216-1FC3E98EA4D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E114F3F-9374-40B8-BA37-226EFEB25264}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1845" yWindow="1170" windowWidth="23145" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,10 +124,10 @@
     <t xml:space="preserve">Works on some Ford fleet vehicles. This includes many police fleets, and by extension some auctioned off police vehicles. Some cab companies are known to use auctioned off Ford police fleets, so this may work for those as well. </t>
   </si>
   <si>
-    <t>Used on many electrical panels and boxes, in addition to some Linear products.</t>
+    <t>Used on many Linear access control keypads.</t>
   </si>
   <si>
-    <t>Used on many Linear access control keypads.</t>
+    <t>Used on many key switches and panel locks, in addition to some Linear products.</t>
   </si>
 </sst>
 </file>
@@ -681,7 +681,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -772,7 +772,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="2"/>
@@ -840,7 +840,7 @@
         <v>222343</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="2"/>
@@ -943,7 +943,7 @@
       <c r="B8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="24" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="6"/>

--- a/Keyed Alike Systems/pentest_keyring.xlsx
+++ b/Keyed Alike Systems/pentest_keyring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellag\Documents\GitHub\physical-pentesting\Keyed Alike Systems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E114F3F-9374-40B8-BA37-226EFEB25264}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DC8126-058A-46D4-BD53-E064AE946679}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1845" yWindow="1170" windowWidth="23145" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1275" yWindow="1350" windowWidth="23145" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,22 +76,13 @@
     <t>FEO-K1</t>
   </si>
   <si>
-    <t>CompX National Cam Lock Keys</t>
-  </si>
-  <si>
     <t>Ford 1284x Fleet Key</t>
   </si>
   <si>
     <t>Ford (S)</t>
   </si>
   <si>
-    <t>Works on many common cam locks. They are used on countless cabinets, drawers, lockboxes, etc.</t>
-  </si>
-  <si>
     <t>C346A, C390A, C413A, C415A, C420A, C642A</t>
-  </si>
-  <si>
-    <t>Opens essentially every DoorKing telephony box made after 1997. (The ones with the "A", "Z", "CALL" buttons and the "DKS" logo. Some models may only have the "DKS" logo.) It's common for these units to have an override button near the postal switch (second key on the front panel). If this button is not present, it is also possible to bypass the relay with a wire loop, or manually short the postal switch terminals.</t>
   </si>
   <si>
     <t>This is one of the most common keys, period. Used by the majority of RV compartments. Also has been used on elevators, golf carts, drawers, cabinets, toolboxes, forklifts, and more.</t>
@@ -128,6 +119,15 @@
   </si>
   <si>
     <t>Used on many key switches and panel locks, in addition to some Linear products.</t>
+  </si>
+  <si>
+    <t>CompX National Disk Lock Keys</t>
+  </si>
+  <si>
+    <t>Works on many common disc locks, especially cam locks. They are used on countless cabinets, drawers, lockboxes, etc.</t>
+  </si>
+  <si>
+    <t>Opens essentially every DoorKing telephony box made after 1997. (The ones with the "A", "Z", "CALL" buttons and the "DKS" logo. Some models may only have the "DKS" logo.) It's common for these units to have an override button near the postal switch (second key on the front panel). If this button is not present, it is also possible to manually short the postal switch terminals with a wire loop.</t>
   </si>
 </sst>
 </file>
@@ -681,7 +681,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -705,7 +705,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
@@ -738,7 +738,7 @@
         <v>2642</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="2"/>
@@ -766,13 +766,13 @@
     </row>
     <row r="3" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="2"/>
@@ -806,7 +806,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="2"/>
@@ -840,7 +840,7 @@
         <v>222343</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="2"/>
@@ -868,16 +868,16 @@
     </row>
     <row r="6" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -910,7 +910,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="2"/>
@@ -944,7 +944,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="2"/>
@@ -978,7 +978,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="2"/>
@@ -1012,7 +1012,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="2"/>
@@ -1040,16 +1040,16 @@
     </row>
     <row r="11" spans="1:26" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>18</v>
-      </c>
       <c r="C11" s="25" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
